--- a/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
+++ b/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\okrahR\msm-visualizer\visualizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\OneDrive\11_Nuevos_proyectos\MSM\msmvisualizer\visualizer_2\SILOVisualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{761481FF-3FEF-4662-B03A-2D9ECC2C8951}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$55</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -296,18 +299,6 @@
     <t>transitAccessibility</t>
   </si>
   <si>
-    <t>hhInc_&lt;20000</t>
-  </si>
-  <si>
-    <t>hhInc_&gt;20000</t>
-  </si>
-  <si>
-    <t>hhInc_&gt;40000</t>
-  </si>
-  <si>
-    <t>hhInc_&gt;60000</t>
-  </si>
-  <si>
     <t>Households per sq.km</t>
   </si>
   <si>
@@ -486,6 +477,18 @@
   </si>
   <si>
     <t>Proportion of trips (%)</t>
+  </si>
+  <si>
+    <t>hhInc_.20000</t>
+  </si>
+  <si>
+    <t>hhInc_.20000.1</t>
+  </si>
+  <si>
+    <t>hhInc_.40000</t>
+  </si>
+  <si>
+    <t>hhInc_.60000</t>
   </si>
 </sst>
 </file>
@@ -840,22 +843,23 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="9" max="12" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -893,7 +897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -925,7 +929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -963,7 +967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1033,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
@@ -1126,7 +1130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1266,7 +1270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1709,12 +1713,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1741,7 +1745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -1848,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -1865,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1882,13 +1886,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1899,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1916,13 +1920,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1933,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1950,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1967,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1984,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2001,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2018,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2035,141 +2039,141 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
       <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
         <v>88</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J46" t="s">
         <v>49</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
         <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -2178,168 +2182,169 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
         <v>54</v>
       </c>
       <c r="J48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
         <v>139</v>
       </c>
-      <c r="K48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" t="s">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
         <v>141</v>
       </c>
-      <c r="G49" t="s">
-        <v>139</v>
-      </c>
-      <c r="I49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I50" t="s">
-        <v>149</v>
-      </c>
-      <c r="J50" t="s">
-        <v>150</v>
-      </c>
-      <c r="K50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L55" xr:uid="{2C0A83EE-723A-4DDF-8EDE-72F50AA03C2F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
+++ b/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\OneDrive\11_Nuevos_proyectos\MSM\msmvisualizer\visualizer_2\SILOVisualizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8722396f3f1ac9b/11_Nuevos_proyectos/MSM/msmvisualizer/visualizer_2/SILOVisualizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{761481FF-3FEF-4662-B03A-2D9ECC2C8951}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{340581C3-D3A6-41D7-90C4-A999F4811A16}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="152">
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>hhByType</t>
-  </si>
-  <si>
-    <t>hhByRace</t>
-  </si>
-  <si>
-    <t>hhBySize</t>
-  </si>
-  <si>
-    <t>AveHHSize</t>
-  </si>
-  <si>
-    <t>AveHHInc</t>
-  </si>
-  <si>
-    <t>carOwnershipLevel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
   <si>
     <t>Income</t>
   </si>
@@ -62,30 +41,9 @@
     <t>Age</t>
   </si>
   <si>
-    <t>ppByRace</t>
-  </si>
-  <si>
-    <t>laborParticipationRateByAge</t>
-  </si>
-  <si>
     <t>Migration</t>
   </si>
   <si>
-    <t>QualityLevel</t>
-  </si>
-  <si>
-    <t>CountOfDD</t>
-  </si>
-  <si>
-    <t>AveMonthlyPrice</t>
-  </si>
-  <si>
-    <t>AveVacancy</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
     <t>jobByRegion</t>
   </si>
   <si>
@@ -110,9 +68,6 @@
     <t>Households by rent and income</t>
   </si>
   <si>
-    <t>Average rent</t>
-  </si>
-  <si>
     <t>Persons by age and gender</t>
   </si>
   <si>
@@ -371,9 +326,6 @@
     <t>Average and median household income</t>
   </si>
   <si>
-    <t>Total jobs</t>
-  </si>
-  <si>
     <t>Average rent by income</t>
   </si>
   <si>
@@ -489,6 +441,72 @@
   </si>
   <si>
     <t>hhInc_.60000</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>hhSizInc</t>
+  </si>
+  <si>
+    <t>hhRace</t>
+  </si>
+  <si>
+    <t>hhCarOwnLev</t>
+  </si>
+  <si>
+    <t>hhSize</t>
+  </si>
+  <si>
+    <t>hhAvSize</t>
+  </si>
+  <si>
+    <t>hhInc</t>
+  </si>
+  <si>
+    <t>hhRentIncome</t>
+  </si>
+  <si>
+    <t>hhAvRent</t>
+  </si>
+  <si>
+    <t>peAgeGend</t>
+  </si>
+  <si>
+    <t>peRace</t>
+  </si>
+  <si>
+    <t>peLaborPartRate</t>
+  </si>
+  <si>
+    <t>pemigration</t>
+  </si>
+  <si>
+    <t>dwellQuality</t>
+  </si>
+  <si>
+    <t>dwellType</t>
+  </si>
+  <si>
+    <t>dewllAvMonPrice</t>
+  </si>
+  <si>
+    <t>dewllVacancy</t>
+  </si>
+  <si>
+    <t>reAvailableLand</t>
+  </si>
+  <si>
+    <t>reTotalJobs</t>
+  </si>
+  <si>
+    <t>hhEvents</t>
+  </si>
+  <si>
+    <t>peEvents</t>
+  </si>
+  <si>
+    <t>dwellEvents</t>
   </si>
 </sst>
 </file>
@@ -843,8 +861,8 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,1492 +873,1496 @@
     <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" t="s">
         <v>128</v>
-      </c>
-      <c r="F49" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" t="s">
-        <v>117</v>
-      </c>
-      <c r="J49" t="s">
-        <v>135</v>
-      </c>
-      <c r="K49" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" t="s">
-        <v>145</v>
-      </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
+++ b/visualizer_2/SILOVisualizer/visualizerLabels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8722396f3f1ac9b/11_Nuevos_proyectos/MSM/msmvisualizer/visualizer_2/SILOVisualizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{340581C3-D3A6-41D7-90C4-A999F4811A16}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{C89F4494-AD56-4BBE-8404-DD845B045447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB7E95A9-44E0-4A94-AE78-EDF5868AA2C5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{247ECA27-6467-44D0-B0C0-41F1584AA2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="164">
   <si>
     <t>Income</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Persons by race</t>
   </si>
   <si>
-    <t>Dwellings by quality level</t>
-  </si>
-  <si>
     <t>Dwellings by type</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Average monthly price by dwelling type</t>
   </si>
   <si>
-    <t>aveCommuteDistByRegion</t>
-  </si>
-  <si>
     <t>Average commute distance by region</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>dwellType</t>
   </si>
   <si>
-    <t>dewllAvMonPrice</t>
-  </si>
-  <si>
     <t>dewllVacancy</t>
   </si>
   <si>
@@ -507,6 +498,33 @@
   </si>
   <si>
     <t>dwellEvents</t>
+  </si>
+  <si>
+    <t>Persons per household</t>
+  </si>
+  <si>
+    <t>Amount of vehicles</t>
+  </si>
+  <si>
+    <t>Labor rate</t>
+  </si>
+  <si>
+    <t>Dwellings share by quality level</t>
+  </si>
+  <si>
+    <t>Share of dwellings</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>dwellAvMonPrice</t>
+  </si>
+  <si>
+    <t>reAvCommDist</t>
+  </si>
+  <si>
+    <t>Local currency</t>
   </si>
 </sst>
 </file>
@@ -860,9 +878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66537F6-871A-4D74-AF14-ACC616A7C38E}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,48 +901,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -933,30 +951,30 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -965,36 +983,36 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1006,33 +1024,33 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1041,30 +1059,30 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1073,30 +1091,30 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1105,59 +1123,59 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1166,30 +1184,30 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1198,36 +1216,36 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1239,65 +1257,65 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1306,36 +1324,36 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1344,36 +1362,36 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1382,65 +1400,65 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1449,219 +1467,219 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1670,36 +1688,36 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1708,665 +1726,666 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
         <v>98</v>
       </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
         <v>129</v>
-      </c>
-      <c r="J50" t="s">
-        <v>130</v>
-      </c>
-      <c r="K50" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L55" xr:uid="{2C0A83EE-723A-4DDF-8EDE-72F50AA03C2F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>